--- a/data/stem-diameters.xlsx
+++ b/data/stem-diameters.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/2017 Leafhopper Project/Population Experiment Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottericr/Documents/Tufts/Research Projects/leafhopper-observational/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75918A-4932-0A4D-AF89-D198DA9368B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13420" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B Diameter, Jun 14" sheetId="7" r:id="rId1"/>
+    <sheet name="B Diameter, Jul 14" sheetId="7" r:id="rId1"/>
     <sheet name="A Diameter, Jul 10" sheetId="6" r:id="rId2"/>
     <sheet name="A Diameter, Jun 30" sheetId="5" r:id="rId3"/>
     <sheet name="B Diameter, Jun 12" sheetId="4" r:id="rId4"/>
     <sheet name="A Diameter, Jun 9" sheetId="3" r:id="rId5"/>
     <sheet name="B Diameter, Jun 8" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -64,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,13 +128,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,17 +405,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -437,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -463,7 +469,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -489,7 +495,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -515,7 +521,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -541,7 +547,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -567,7 +573,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -593,7 +599,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -619,7 +625,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -645,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -671,7 +677,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -705,17 +711,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -767,7 +773,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -793,7 +799,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -819,7 +825,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -845,7 +851,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -871,7 +877,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -897,7 +903,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -923,7 +929,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -949,7 +955,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -975,7 +981,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1007,17 +1013,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1309,17 +1315,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1611,17 +1617,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1913,19 +1919,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1"/>
     <col min="2" max="8" width="6.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2220,7 +2226,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2229,7 +2235,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2238,7 +2244,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2247,7 +2253,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2256,7 +2262,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2265,7 +2271,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2274,7 +2280,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2283,7 +2289,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2292,7 +2298,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2301,7 +2307,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2310,7 +2316,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2319,7 +2325,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2328,7 +2334,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2337,7 +2343,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2346,7 +2352,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2355,7 +2361,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2364,7 +2370,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2373,7 +2379,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2382,7 +2388,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2391,7 +2397,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2400,7 +2406,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2409,7 +2415,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2418,7 +2424,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2427,7 +2433,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2436,7 +2442,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2445,7 +2451,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2454,7 +2460,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2463,7 +2469,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2472,7 +2478,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2481,7 +2487,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2490,7 +2496,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2499,7 +2505,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2508,7 +2514,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2517,7 +2523,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2526,7 +2532,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2535,7 +2541,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2544,7 +2550,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2553,7 +2559,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2562,7 +2568,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2571,7 +2577,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2580,7 +2586,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2589,7 +2595,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2598,7 +2604,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2607,7 +2613,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2616,7 +2622,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2625,7 +2631,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2634,7 +2640,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2643,7 +2649,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2652,7 +2658,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2661,7 +2667,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2670,7 +2676,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2679,7 +2685,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2688,7 +2694,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2697,7 +2703,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2706,7 +2712,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2715,7 +2721,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2724,7 +2730,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2733,7 +2739,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2742,7 +2748,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2751,7 +2757,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2760,7 +2766,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2769,7 +2775,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2778,7 +2784,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2787,7 +2793,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2796,7 +2802,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2805,7 +2811,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2814,7 +2820,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2823,7 +2829,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2832,7 +2838,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2841,7 +2847,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2850,7 +2856,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2859,7 +2865,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2868,7 +2874,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2877,7 +2883,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2886,7 +2892,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2895,7 +2901,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2904,7 +2910,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2913,7 +2919,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2922,7 +2928,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2931,7 +2937,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2940,7 +2946,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2949,7 +2955,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2958,7 +2964,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2967,7 +2973,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2976,7 +2982,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2985,7 +2991,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2994,7 +3000,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3003,7 +3009,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3012,7 +3018,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3021,7 +3027,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3030,7 +3036,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3039,7 +3045,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3048,7 +3054,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3057,7 +3063,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3066,7 +3072,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3075,7 +3081,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3084,7 +3090,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3093,7 +3099,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3102,7 +3108,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3111,7 +3117,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3120,7 +3126,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3129,7 +3135,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3138,7 +3144,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3147,7 +3153,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3156,7 +3162,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3165,7 +3171,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3174,7 +3180,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3183,7 +3189,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3192,7 +3198,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3201,7 +3207,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3210,7 +3216,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3219,7 +3225,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3228,7 +3234,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3237,7 +3243,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3246,7 +3252,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3255,7 +3261,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3264,7 +3270,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -3273,7 +3279,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3282,7 +3288,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -3291,7 +3297,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3300,7 +3306,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3309,7 +3315,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -3318,7 +3324,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3327,7 +3333,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3336,7 +3342,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -3345,7 +3351,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3354,7 +3360,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -3363,7 +3369,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3372,7 +3378,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -3381,7 +3387,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3390,7 +3396,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -3399,7 +3405,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3408,7 +3414,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -3417,7 +3423,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3426,7 +3432,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3435,7 +3441,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3444,7 +3450,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -3453,7 +3459,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3462,7 +3468,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3471,7 +3477,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3480,7 +3486,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3489,7 +3495,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3498,7 +3504,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3507,7 +3513,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -3516,7 +3522,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -3525,7 +3531,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3534,7 +3540,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -3543,7 +3549,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3552,7 +3558,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -3561,7 +3567,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3570,7 +3576,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3579,7 +3585,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3588,7 +3594,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3597,7 +3603,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -3606,7 +3612,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -3615,7 +3621,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3624,7 +3630,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -3633,7 +3639,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3642,7 +3648,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -3651,7 +3657,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3660,7 +3666,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -3669,7 +3675,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -3678,7 +3684,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -3687,7 +3693,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -3696,7 +3702,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -3705,7 +3711,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -3714,7 +3720,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -3723,7 +3729,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -3732,7 +3738,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -3741,7 +3747,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -3750,7 +3756,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -3759,7 +3765,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3768,7 +3774,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -3777,7 +3783,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3786,7 +3792,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:8">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -3795,7 +3801,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:8">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -3804,7 +3810,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -3813,7 +3819,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -3822,7 +3828,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3831,7 +3837,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:8">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -3840,7 +3846,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:8">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -3849,7 +3855,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -3858,7 +3864,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -3867,7 +3873,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -3876,7 +3882,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -3885,7 +3891,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -3894,7 +3900,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -3903,7 +3909,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -3912,7 +3918,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -3921,7 +3927,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -3930,7 +3936,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -3939,7 +3945,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -3948,7 +3954,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -3957,7 +3963,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -3966,7 +3972,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:8">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -3975,7 +3981,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -3984,7 +3990,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -3993,7 +3999,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4002,7 +4008,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:8">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4011,7 +4017,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4020,7 +4026,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4029,7 +4035,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:8">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4038,7 +4044,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:8">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4047,7 +4053,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4056,7 +4062,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4065,7 +4071,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4074,7 +4080,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:8">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4083,7 +4089,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:8">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4092,7 +4098,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4101,7 +4107,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4110,7 +4116,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4119,7 +4125,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4128,7 +4134,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4137,7 +4143,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4146,7 +4152,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4155,7 +4161,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4164,7 +4170,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4173,7 +4179,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4182,7 +4188,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4191,7 +4197,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4200,7 +4206,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:8">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4209,7 +4215,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:8">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4218,7 +4224,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4227,7 +4233,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4236,7 +4242,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4245,7 +4251,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:8">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4254,7 +4260,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:8">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4263,7 +4269,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:8">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4272,7 +4278,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:8">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -4281,7 +4287,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:8">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4290,7 +4296,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4299,7 +4305,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4308,7 +4314,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4317,7 +4323,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:8">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4326,7 +4332,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:8">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4335,7 +4341,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -4344,7 +4350,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:8">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4353,7 +4359,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:8">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -4362,7 +4368,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:8">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -4371,7 +4377,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:8">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -4380,7 +4386,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -4389,7 +4395,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:8">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -4398,7 +4404,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:8">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -4407,7 +4413,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:8">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -4416,7 +4422,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:8">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -4425,7 +4431,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:8">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -4434,7 +4440,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:8">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -4443,7 +4449,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:8">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -4452,7 +4458,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:8">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -4461,7 +4467,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:8">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -4470,7 +4476,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:8">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -4479,7 +4485,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:8">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -4488,7 +4494,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:8">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -4497,7 +4503,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:8">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -4506,7 +4512,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:8">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -4515,7 +4521,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:8">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -4524,7 +4530,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:8">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -4533,7 +4539,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:8">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -4542,7 +4548,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:8">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -4551,7 +4557,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:8">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -4560,7 +4566,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:8">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -4569,7 +4575,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:8">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -4578,7 +4584,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:8">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -4587,7 +4593,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:8">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -4596,7 +4602,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:8">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -4605,7 +4611,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:8">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -4614,7 +4620,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:8">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -4623,7 +4629,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:8">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -4632,7 +4638,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:8">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -4641,7 +4647,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:8">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -4650,7 +4656,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:8">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -4659,7 +4665,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:8">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -4668,7 +4674,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:8">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -4677,7 +4683,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:8">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -4686,7 +4692,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:8">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -4695,7 +4701,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:8">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -4704,7 +4710,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:8">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -4713,7 +4719,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:8">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -4722,7 +4728,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:8">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -4731,7 +4737,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:8">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -4740,7 +4746,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:8">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -4749,7 +4755,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:8">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -4758,7 +4764,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:8">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -4767,7 +4773,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:8">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -4776,7 +4782,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:8">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -4785,7 +4791,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:8">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -4794,7 +4800,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:8">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -4803,7 +4809,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:8">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -4812,7 +4818,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:8">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -4821,7 +4827,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:8">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -4830,7 +4836,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:8">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -4839,7 +4845,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:8">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -4848,7 +4854,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:8">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -4857,7 +4863,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:8">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -4866,7 +4872,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:8">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -4875,7 +4881,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:8">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -4884,7 +4890,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:8">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -4893,7 +4899,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:8">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -4902,7 +4908,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:8">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -4911,7 +4917,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:8">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -4920,7 +4926,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:8">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -4929,7 +4935,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:8">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -4938,7 +4944,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:8">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -4947,7 +4953,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:8">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -4956,7 +4962,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:8">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -4965,7 +4971,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:8">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -4974,7 +4980,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:8">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -4983,7 +4989,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:8">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -4992,7 +4998,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:8">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -5001,7 +5007,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:8">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -5010,7 +5016,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:8">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -5019,7 +5025,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:8">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -5028,7 +5034,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:8">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -5037,7 +5043,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:8">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -5046,7 +5052,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:8">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -5055,7 +5061,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:8">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -5064,7 +5070,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:8">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -5073,7 +5079,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:8">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -5082,7 +5088,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:8">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -5091,7 +5097,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:8">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -5100,7 +5106,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:8">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -5109,7 +5115,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:8">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -5118,7 +5124,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:8">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -5127,7 +5133,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:8">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -5136,7 +5142,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:8">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -5145,7 +5151,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:8">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -5154,7 +5160,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:8">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -5163,7 +5169,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:8">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -5172,7 +5178,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:8">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -5181,7 +5187,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:8">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -5190,7 +5196,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:8">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -5199,7 +5205,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:8">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -5208,7 +5214,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:8">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -5217,7 +5223,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:8">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -5226,7 +5232,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:8">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -5235,7 +5241,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:8">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -5244,7 +5250,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:8">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -5253,7 +5259,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:8">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -5262,7 +5268,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:8">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -5271,7 +5277,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:8">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -5280,7 +5286,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:8">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -5289,7 +5295,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:8">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -5298,7 +5304,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:8">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -5307,7 +5313,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:8">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -5316,7 +5322,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:8">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -5325,7 +5331,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:8">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -5334,7 +5340,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:8">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -5343,7 +5349,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:8">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -5352,7 +5358,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:8">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -5361,7 +5367,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:8">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -5370,7 +5376,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:8">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -5379,7 +5385,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:8">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -5388,7 +5394,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:8">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -5397,7 +5403,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:8">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -5406,7 +5412,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:8">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -5415,7 +5421,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:8">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -5424,7 +5430,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:8">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -5433,7 +5439,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:8">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -5442,7 +5448,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:8">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -5451,7 +5457,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:8">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -5460,7 +5466,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:8">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -5469,7 +5475,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:8">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -5478,7 +5484,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:8">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -5487,7 +5493,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:8">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -5496,7 +5502,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:8">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -5505,7 +5511,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:8">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -5514,7 +5520,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:8">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -5523,7 +5529,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:8">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -5532,7 +5538,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:8">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -5541,7 +5547,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:8">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -5550,7 +5556,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:8">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -5559,7 +5565,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:8">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -5568,7 +5574,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:8">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -5577,7 +5583,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:8">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -5586,7 +5592,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:8">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -5595,7 +5601,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:8">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -5604,7 +5610,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:8">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -5613,7 +5619,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:8">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -5622,7 +5628,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:8">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -5631,7 +5637,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:8">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -5640,7 +5646,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:8">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -5649,7 +5655,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:8">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -5658,7 +5664,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:8">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -5667,7 +5673,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:8">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -5676,7 +5682,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:8">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -5685,7 +5691,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:8">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -5694,7 +5700,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:8">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -5703,7 +5709,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:8">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -5712,7 +5718,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:8">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -5721,7 +5727,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:8">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -5730,7 +5736,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:8">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -5739,7 +5745,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:8">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -5748,7 +5754,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:8">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -5757,7 +5763,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:8">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -5766,7 +5772,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:8">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -5775,7 +5781,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:8">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -5784,7 +5790,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:8">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -5793,7 +5799,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:8">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -5802,7 +5808,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:8">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -5811,7 +5817,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:8">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -5820,7 +5826,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:8">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -5829,7 +5835,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:8">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -5838,7 +5844,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:8">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -5847,7 +5853,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:8">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -5856,7 +5862,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:8">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -5865,7 +5871,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:8">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -5874,7 +5880,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:8">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -5883,7 +5889,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:8">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -5892,7 +5898,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:8">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -5901,7 +5907,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:8">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -5910,7 +5916,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:8">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -5919,7 +5925,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:8">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -5928,7 +5934,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:8">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -5937,7 +5943,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:8">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -5946,7 +5952,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:8">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -5955,7 +5961,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:8">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -5964,7 +5970,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:8">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -5973,7 +5979,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
     </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:8">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -5982,7 +5988,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
     </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:8">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -5991,7 +5997,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:8">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -6000,7 +6006,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:8">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -6009,7 +6015,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:8">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -6018,7 +6024,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:8">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -6027,7 +6033,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:8">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -6036,7 +6042,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:8">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -6045,7 +6051,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:8">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -6054,7 +6060,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:8">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -6063,7 +6069,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:8">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -6072,7 +6078,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:8">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -6081,7 +6087,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:8">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -6090,7 +6096,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:8">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -6099,7 +6105,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:8">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -6108,7 +6114,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:8">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -6117,7 +6123,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:8">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -6126,7 +6132,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:8">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -6135,7 +6141,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:8">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -6144,7 +6150,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
     </row>
-    <row r="449" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:8">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -6153,7 +6159,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
     </row>
-    <row r="450" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:8">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -6162,7 +6168,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
     </row>
-    <row r="451" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:8">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -6171,7 +6177,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
     </row>
-    <row r="452" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:8">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -6180,7 +6186,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
     </row>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:8">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -6189,7 +6195,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
     </row>
-    <row r="454" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:8">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -6198,7 +6204,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
     </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:8">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -6207,7 +6213,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
     </row>
-    <row r="456" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:8">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -6216,7 +6222,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
     </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:8">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -6225,7 +6231,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
     </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:8">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -6234,7 +6240,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
     </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:8">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -6243,7 +6249,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
     </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:8">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -6252,7 +6258,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
     </row>
-    <row r="461" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:8">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -6261,7 +6267,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
     </row>
-    <row r="462" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:8">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -6270,7 +6276,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
     </row>
-    <row r="463" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:8">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -6279,7 +6285,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
     </row>
-    <row r="464" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:8">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -6288,7 +6294,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
     </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:8">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -6297,7 +6303,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
     </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:8">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -6306,7 +6312,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
     </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:8">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -6315,7 +6321,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
     </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:8">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -6324,7 +6330,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
     </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:8">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -6333,7 +6339,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
     </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:8">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -6342,7 +6348,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
     </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:8">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -6351,7 +6357,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
     </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:8">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -6360,7 +6366,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
     </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:8">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -6369,7 +6375,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
     </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:8">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -6378,7 +6384,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
     </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:8">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -6387,7 +6393,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
     </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:8">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -6396,7 +6402,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
     </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:8">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -6405,7 +6411,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:8">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -6414,7 +6420,7 @@
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
     </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:8">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -6423,7 +6429,7 @@
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
     </row>
-    <row r="480" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:8">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -6432,7 +6438,7 @@
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:8">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -6441,7 +6447,7 @@
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:8">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -6450,7 +6456,7 @@
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:8">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -6459,7 +6465,7 @@
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:8">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -6468,7 +6474,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
     </row>
-    <row r="485" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:8">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -6477,7 +6483,7 @@
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
     </row>
-    <row r="486" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:8">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -6486,7 +6492,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
     </row>
-    <row r="487" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:8">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -6495,7 +6501,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
     </row>
-    <row r="488" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:8">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -6504,7 +6510,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
     </row>
-    <row r="489" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:8">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -6513,7 +6519,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
     </row>
-    <row r="490" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:8">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -6522,7 +6528,7 @@
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
     </row>
-    <row r="491" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:8">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -6531,7 +6537,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
     </row>
-    <row r="492" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:8">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -6540,7 +6546,7 @@
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
     </row>
-    <row r="493" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:8">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -6549,7 +6555,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
     </row>
-    <row r="494" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:8">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -6558,7 +6564,7 @@
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
     </row>
-    <row r="495" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:8">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -6567,7 +6573,7 @@
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
     </row>
-    <row r="496" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:8">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -6576,7 +6582,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:8">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -6585,7 +6591,7 @@
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:8">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -6594,7 +6600,7 @@
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:8">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -6603,7 +6609,7 @@
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:8">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -6612,7 +6618,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
     </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:8">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -6621,7 +6627,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:8">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -6630,7 +6636,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
     </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:8">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -6639,7 +6645,7 @@
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
     </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:8">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -6648,7 +6654,7 @@
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
     </row>
-    <row r="505" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:8">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -6657,7 +6663,7 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:8">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -6666,7 +6672,7 @@
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
     </row>
-    <row r="507" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:8">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -6675,7 +6681,7 @@
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
     </row>
-    <row r="508" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:8">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -6684,7 +6690,7 @@
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
     </row>
-    <row r="509" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:8">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -6693,7 +6699,7 @@
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
     </row>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:8">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -6702,7 +6708,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
     </row>
-    <row r="511" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:8">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -6711,7 +6717,7 @@
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
     </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:8">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -6720,7 +6726,7 @@
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:8">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -6729,7 +6735,7 @@
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
     </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:8">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -6738,7 +6744,7 @@
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
     </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:8">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -6747,7 +6753,7 @@
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
     </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:8">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -6756,7 +6762,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
     </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:8">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -6765,7 +6771,7 @@
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
     </row>
-    <row r="518" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:8">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -6774,7 +6780,7 @@
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
     </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:8">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -6783,7 +6789,7 @@
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
     </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:8">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -6792,7 +6798,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
     </row>
-    <row r="521" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:8">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -6801,7 +6807,7 @@
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
     </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:8">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -6810,7 +6816,7 @@
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
     </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:8">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -6819,7 +6825,7 @@
       <c r="G523" s="2"/>
       <c r="H523" s="2"/>
     </row>
-    <row r="524" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:8">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -6828,7 +6834,7 @@
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
     </row>
-    <row r="525" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:8">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -6837,7 +6843,7 @@
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
     </row>
-    <row r="526" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:8">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -6846,7 +6852,7 @@
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
     </row>
-    <row r="527" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:8">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -6855,7 +6861,7 @@
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
     </row>
-    <row r="528" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:8">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -6864,7 +6870,7 @@
       <c r="G528" s="2"/>
       <c r="H528" s="2"/>
     </row>
-    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:8">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -6873,7 +6879,7 @@
       <c r="G529" s="2"/>
       <c r="H529" s="2"/>
     </row>
-    <row r="530" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:8">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -6882,7 +6888,7 @@
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
     </row>
-    <row r="531" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:8">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -6891,7 +6897,7 @@
       <c r="G531" s="2"/>
       <c r="H531" s="2"/>
     </row>
-    <row r="532" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:8">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -6900,7 +6906,7 @@
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
     </row>
-    <row r="533" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:8">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -6909,7 +6915,7 @@
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
     </row>
-    <row r="534" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:8">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -6918,7 +6924,7 @@
       <c r="G534" s="2"/>
       <c r="H534" s="2"/>
     </row>
-    <row r="535" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:8">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -6927,7 +6933,7 @@
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
     </row>
-    <row r="536" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:8">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -6936,7 +6942,7 @@
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
     </row>
-    <row r="537" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:8">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -6945,7 +6951,7 @@
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
     </row>
-    <row r="538" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:8">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -6954,7 +6960,7 @@
       <c r="G538" s="2"/>
       <c r="H538" s="2"/>
     </row>
-    <row r="539" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:8">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -6963,7 +6969,7 @@
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
     </row>
-    <row r="540" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:8">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -6972,7 +6978,7 @@
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
     </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:8">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -6981,7 +6987,7 @@
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
     </row>
-    <row r="542" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:8">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -6990,7 +6996,7 @@
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
     </row>
-    <row r="543" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:8">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -6999,7 +7005,7 @@
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
     </row>
-    <row r="544" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:8">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -7008,7 +7014,7 @@
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
     </row>
-    <row r="545" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:8">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -7017,7 +7023,7 @@
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
     </row>
-    <row r="546" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:8">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -7026,7 +7032,7 @@
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
     </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:8">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -7035,7 +7041,7 @@
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
     </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:8">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -7044,7 +7050,7 @@
       <c r="G548" s="2"/>
       <c r="H548" s="2"/>
     </row>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:8">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -7053,7 +7059,7 @@
       <c r="G549" s="2"/>
       <c r="H549" s="2"/>
     </row>
-    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:8">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -7062,7 +7068,7 @@
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
     </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:8">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -7071,7 +7077,7 @@
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
     </row>
-    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:8">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -7080,7 +7086,7 @@
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
     </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:8">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -7089,7 +7095,7 @@
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
     </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:8">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -7098,7 +7104,7 @@
       <c r="G554" s="2"/>
       <c r="H554" s="2"/>
     </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:8">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -7107,7 +7113,7 @@
       <c r="G555" s="2"/>
       <c r="H555" s="2"/>
     </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:8">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -7116,7 +7122,7 @@
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
     </row>
-    <row r="557" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:8">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -7125,7 +7131,7 @@
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
     </row>
-    <row r="558" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:8">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -7134,7 +7140,7 @@
       <c r="G558" s="2"/>
       <c r="H558" s="2"/>
     </row>
-    <row r="559" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:8">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -7143,7 +7149,7 @@
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
     </row>
-    <row r="560" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:8">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -7152,7 +7158,7 @@
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
     </row>
-    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:8">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -7161,7 +7167,7 @@
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
     </row>
-    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:8">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -7170,7 +7176,7 @@
       <c r="G562" s="2"/>
       <c r="H562" s="2"/>
     </row>
-    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:8">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -7179,7 +7185,7 @@
       <c r="G563" s="2"/>
       <c r="H563" s="2"/>
     </row>
-    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:8">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -7188,7 +7194,7 @@
       <c r="G564" s="2"/>
       <c r="H564" s="2"/>
     </row>
-    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:8">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -7197,7 +7203,7 @@
       <c r="G565" s="2"/>
       <c r="H565" s="2"/>
     </row>
-    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:8">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -7206,7 +7212,7 @@
       <c r="G566" s="2"/>
       <c r="H566" s="2"/>
     </row>
-    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:8">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -7215,7 +7221,7 @@
       <c r="G567" s="2"/>
       <c r="H567" s="2"/>
     </row>
-    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:8">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -7224,7 +7230,7 @@
       <c r="G568" s="2"/>
       <c r="H568" s="2"/>
     </row>
-    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:8">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -7233,7 +7239,7 @@
       <c r="G569" s="2"/>
       <c r="H569" s="2"/>
     </row>
-    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:8">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -7242,7 +7248,7 @@
       <c r="G570" s="2"/>
       <c r="H570" s="2"/>
     </row>
-    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:8">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -7251,7 +7257,7 @@
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
     </row>
-    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:8">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -7260,7 +7266,7 @@
       <c r="G572" s="2"/>
       <c r="H572" s="2"/>
     </row>
-    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:8">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -7269,7 +7275,7 @@
       <c r="G573" s="2"/>
       <c r="H573" s="2"/>
     </row>
-    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:8">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -7278,7 +7284,7 @@
       <c r="G574" s="2"/>
       <c r="H574" s="2"/>
     </row>
-    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:8">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -7287,7 +7293,7 @@
       <c r="G575" s="2"/>
       <c r="H575" s="2"/>
     </row>
-    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:8">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -7296,7 +7302,7 @@
       <c r="G576" s="2"/>
       <c r="H576" s="2"/>
     </row>
-    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:8">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -7305,7 +7311,7 @@
       <c r="G577" s="2"/>
       <c r="H577" s="2"/>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:8">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -7314,7 +7320,7 @@
       <c r="G578" s="2"/>
       <c r="H578" s="2"/>
     </row>
-    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:8">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -7323,7 +7329,7 @@
       <c r="G579" s="2"/>
       <c r="H579" s="2"/>
     </row>
-    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:8">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -7332,7 +7338,7 @@
       <c r="G580" s="2"/>
       <c r="H580" s="2"/>
     </row>
-    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:8">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -7341,7 +7347,7 @@
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
     </row>
-    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:8">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -7350,7 +7356,7 @@
       <c r="G582" s="2"/>
       <c r="H582" s="2"/>
     </row>
-    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:8">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -7359,7 +7365,7 @@
       <c r="G583" s="2"/>
       <c r="H583" s="2"/>
     </row>
-    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:8">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -7368,7 +7374,7 @@
       <c r="G584" s="2"/>
       <c r="H584" s="2"/>
     </row>
-    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:8">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -7377,7 +7383,7 @@
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
     </row>
-    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:8">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -7386,7 +7392,7 @@
       <c r="G586" s="2"/>
       <c r="H586" s="2"/>
     </row>
-    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:8">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -7395,7 +7401,7 @@
       <c r="G587" s="2"/>
       <c r="H587" s="2"/>
     </row>
-    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:8">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -7404,7 +7410,7 @@
       <c r="G588" s="2"/>
       <c r="H588" s="2"/>
     </row>
-    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:8">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -7413,7 +7419,7 @@
       <c r="G589" s="2"/>
       <c r="H589" s="2"/>
     </row>
-    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:8">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -7422,7 +7428,7 @@
       <c r="G590" s="2"/>
       <c r="H590" s="2"/>
     </row>
-    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:8">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -7431,7 +7437,7 @@
       <c r="G591" s="2"/>
       <c r="H591" s="2"/>
     </row>
-    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:8">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -7440,7 +7446,7 @@
       <c r="G592" s="2"/>
       <c r="H592" s="2"/>
     </row>
-    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:8">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -7449,7 +7455,7 @@
       <c r="G593" s="2"/>
       <c r="H593" s="2"/>
     </row>
-    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:8">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -7458,7 +7464,7 @@
       <c r="G594" s="2"/>
       <c r="H594" s="2"/>
     </row>
-    <row r="595" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:8">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -7467,7 +7473,7 @@
       <c r="G595" s="2"/>
       <c r="H595" s="2"/>
     </row>
-    <row r="596" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:8">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -7476,7 +7482,7 @@
       <c r="G596" s="2"/>
       <c r="H596" s="2"/>
     </row>
-    <row r="597" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:8">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -7485,7 +7491,7 @@
       <c r="G597" s="2"/>
       <c r="H597" s="2"/>
     </row>
-    <row r="598" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:8">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -7494,7 +7500,7 @@
       <c r="G598" s="2"/>
       <c r="H598" s="2"/>
     </row>
-    <row r="599" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:8">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -7503,7 +7509,7 @@
       <c r="G599" s="2"/>
       <c r="H599" s="2"/>
     </row>
-    <row r="600" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:8">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -7512,7 +7518,7 @@
       <c r="G600" s="2"/>
       <c r="H600" s="2"/>
     </row>
-    <row r="601" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:8">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -7521,7 +7527,7 @@
       <c r="G601" s="2"/>
       <c r="H601" s="2"/>
     </row>
-    <row r="602" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:8">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -7530,7 +7536,7 @@
       <c r="G602" s="2"/>
       <c r="H602" s="2"/>
     </row>
-    <row r="603" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:8">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -7539,7 +7545,7 @@
       <c r="G603" s="2"/>
       <c r="H603" s="2"/>
     </row>
-    <row r="604" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:8">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -7548,7 +7554,7 @@
       <c r="G604" s="2"/>
       <c r="H604" s="2"/>
     </row>
-    <row r="605" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:8">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -7557,7 +7563,7 @@
       <c r="G605" s="2"/>
       <c r="H605" s="2"/>
     </row>
-    <row r="606" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:8">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -7566,7 +7572,7 @@
       <c r="G606" s="2"/>
       <c r="H606" s="2"/>
     </row>
-    <row r="607" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:8">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -7575,7 +7581,7 @@
       <c r="G607" s="2"/>
       <c r="H607" s="2"/>
     </row>
-    <row r="608" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:8">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -7584,7 +7590,7 @@
       <c r="G608" s="2"/>
       <c r="H608" s="2"/>
     </row>
-    <row r="609" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:8">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -7593,7 +7599,7 @@
       <c r="G609" s="2"/>
       <c r="H609" s="2"/>
     </row>
-    <row r="610" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:8">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -7602,7 +7608,7 @@
       <c r="G610" s="2"/>
       <c r="H610" s="2"/>
     </row>
-    <row r="611" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:8">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -7611,7 +7617,7 @@
       <c r="G611" s="2"/>
       <c r="H611" s="2"/>
     </row>
-    <row r="612" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:8">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -7620,7 +7626,7 @@
       <c r="G612" s="2"/>
       <c r="H612" s="2"/>
     </row>
-    <row r="613" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:8">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -7629,7 +7635,7 @@
       <c r="G613" s="2"/>
       <c r="H613" s="2"/>
     </row>
-    <row r="614" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:8">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -7638,7 +7644,7 @@
       <c r="G614" s="2"/>
       <c r="H614" s="2"/>
     </row>
-    <row r="615" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:8">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -7647,7 +7653,7 @@
       <c r="G615" s="2"/>
       <c r="H615" s="2"/>
     </row>
-    <row r="616" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:8">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -7656,7 +7662,7 @@
       <c r="G616" s="2"/>
       <c r="H616" s="2"/>
     </row>
-    <row r="617" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:8">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -7665,7 +7671,7 @@
       <c r="G617" s="2"/>
       <c r="H617" s="2"/>
     </row>
-    <row r="618" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:8">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -7674,7 +7680,7 @@
       <c r="G618" s="2"/>
       <c r="H618" s="2"/>
     </row>
-    <row r="619" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:8">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -7683,7 +7689,7 @@
       <c r="G619" s="2"/>
       <c r="H619" s="2"/>
     </row>
-    <row r="620" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:8">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -7692,7 +7698,7 @@
       <c r="G620" s="2"/>
       <c r="H620" s="2"/>
     </row>
-    <row r="621" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:8">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -7701,7 +7707,7 @@
       <c r="G621" s="2"/>
       <c r="H621" s="2"/>
     </row>
-    <row r="622" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:8">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -7710,7 +7716,7 @@
       <c r="G622" s="2"/>
       <c r="H622" s="2"/>
     </row>
-    <row r="623" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:8">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -7719,7 +7725,7 @@
       <c r="G623" s="2"/>
       <c r="H623" s="2"/>
     </row>
-    <row r="624" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:8">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -7728,7 +7734,7 @@
       <c r="G624" s="2"/>
       <c r="H624" s="2"/>
     </row>
-    <row r="625" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:8">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -7737,7 +7743,7 @@
       <c r="G625" s="2"/>
       <c r="H625" s="2"/>
     </row>
-    <row r="626" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:8">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -7746,7 +7752,7 @@
       <c r="G626" s="2"/>
       <c r="H626" s="2"/>
     </row>
-    <row r="627" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:8">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -7755,7 +7761,7 @@
       <c r="G627" s="2"/>
       <c r="H627" s="2"/>
     </row>
-    <row r="628" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:8">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -7764,7 +7770,7 @@
       <c r="G628" s="2"/>
       <c r="H628" s="2"/>
     </row>
-    <row r="629" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:8">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -7773,7 +7779,7 @@
       <c r="G629" s="2"/>
       <c r="H629" s="2"/>
     </row>
-    <row r="630" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:8">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -7782,7 +7788,7 @@
       <c r="G630" s="2"/>
       <c r="H630" s="2"/>
     </row>
-    <row r="631" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:8">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -7791,7 +7797,7 @@
       <c r="G631" s="2"/>
       <c r="H631" s="2"/>
     </row>
-    <row r="632" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:8">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -7800,7 +7806,7 @@
       <c r="G632" s="2"/>
       <c r="H632" s="2"/>
     </row>
-    <row r="633" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:8">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -7809,7 +7815,7 @@
       <c r="G633" s="2"/>
       <c r="H633" s="2"/>
     </row>
-    <row r="634" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:8">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -7818,7 +7824,7 @@
       <c r="G634" s="2"/>
       <c r="H634" s="2"/>
     </row>
-    <row r="635" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:8">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -7827,7 +7833,7 @@
       <c r="G635" s="2"/>
       <c r="H635" s="2"/>
     </row>
-    <row r="636" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:8">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -7836,7 +7842,7 @@
       <c r="G636" s="2"/>
       <c r="H636" s="2"/>
     </row>
-    <row r="637" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:8">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -7845,7 +7851,7 @@
       <c r="G637" s="2"/>
       <c r="H637" s="2"/>
     </row>
-    <row r="638" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:8">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -7854,7 +7860,7 @@
       <c r="G638" s="2"/>
       <c r="H638" s="2"/>
     </row>
-    <row r="639" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:8">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -7863,7 +7869,7 @@
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
     </row>
-    <row r="640" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:8">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -7872,7 +7878,7 @@
       <c r="G640" s="2"/>
       <c r="H640" s="2"/>
     </row>
-    <row r="641" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:8">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -7881,7 +7887,7 @@
       <c r="G641" s="2"/>
       <c r="H641" s="2"/>
     </row>
-    <row r="642" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:8">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -7890,7 +7896,7 @@
       <c r="G642" s="2"/>
       <c r="H642" s="2"/>
     </row>
-    <row r="643" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:8">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -7899,7 +7905,7 @@
       <c r="G643" s="2"/>
       <c r="H643" s="2"/>
     </row>
-    <row r="644" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:8">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -7908,7 +7914,7 @@
       <c r="G644" s="2"/>
       <c r="H644" s="2"/>
     </row>
-    <row r="645" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:8">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -7917,7 +7923,7 @@
       <c r="G645" s="2"/>
       <c r="H645" s="2"/>
     </row>
-    <row r="646" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:8">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -7926,7 +7932,7 @@
       <c r="G646" s="2"/>
       <c r="H646" s="2"/>
     </row>
-    <row r="647" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:8">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -7935,7 +7941,7 @@
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
     </row>
-    <row r="648" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:8">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -7944,7 +7950,7 @@
       <c r="G648" s="2"/>
       <c r="H648" s="2"/>
     </row>
-    <row r="649" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:8">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -7953,7 +7959,7 @@
       <c r="G649" s="2"/>
       <c r="H649" s="2"/>
     </row>
-    <row r="650" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:8">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -7962,7 +7968,7 @@
       <c r="G650" s="2"/>
       <c r="H650" s="2"/>
     </row>
-    <row r="651" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:8">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -7971,7 +7977,7 @@
       <c r="G651" s="2"/>
       <c r="H651" s="2"/>
     </row>
-    <row r="652" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:8">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -7980,7 +7986,7 @@
       <c r="G652" s="2"/>
       <c r="H652" s="2"/>
     </row>
-    <row r="653" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:8">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -7989,7 +7995,7 @@
       <c r="G653" s="2"/>
       <c r="H653" s="2"/>
     </row>
-    <row r="654" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:8">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -7998,7 +8004,7 @@
       <c r="G654" s="2"/>
       <c r="H654" s="2"/>
     </row>
-    <row r="655" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:8">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -8007,7 +8013,7 @@
       <c r="G655" s="2"/>
       <c r="H655" s="2"/>
     </row>
-    <row r="656" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:8">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -8016,7 +8022,7 @@
       <c r="G656" s="2"/>
       <c r="H656" s="2"/>
     </row>
-    <row r="657" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:8">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -8025,7 +8031,7 @@
       <c r="G657" s="2"/>
       <c r="H657" s="2"/>
     </row>
-    <row r="658" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:8">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -8034,7 +8040,7 @@
       <c r="G658" s="2"/>
       <c r="H658" s="2"/>
     </row>
-    <row r="659" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:8">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -8043,7 +8049,7 @@
       <c r="G659" s="2"/>
       <c r="H659" s="2"/>
     </row>
-    <row r="660" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:8">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -8052,7 +8058,7 @@
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
     </row>
-    <row r="661" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:8">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -8061,7 +8067,7 @@
       <c r="G661" s="2"/>
       <c r="H661" s="2"/>
     </row>
-    <row r="662" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:8">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -8070,7 +8076,7 @@
       <c r="G662" s="2"/>
       <c r="H662" s="2"/>
     </row>
-    <row r="663" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:8">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -8079,7 +8085,7 @@
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
     </row>
-    <row r="664" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:8">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -8088,7 +8094,7 @@
       <c r="G664" s="2"/>
       <c r="H664" s="2"/>
     </row>
-    <row r="665" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:8">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -8097,7 +8103,7 @@
       <c r="G665" s="2"/>
       <c r="H665" s="2"/>
     </row>
-    <row r="666" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:8">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -8106,7 +8112,7 @@
       <c r="G666" s="2"/>
       <c r="H666" s="2"/>
     </row>
-    <row r="667" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:8">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -8115,7 +8121,7 @@
       <c r="G667" s="2"/>
       <c r="H667" s="2"/>
     </row>
-    <row r="668" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:8">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -8124,7 +8130,7 @@
       <c r="G668" s="2"/>
       <c r="H668" s="2"/>
     </row>
-    <row r="669" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:8">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -8133,7 +8139,7 @@
       <c r="G669" s="2"/>
       <c r="H669" s="2"/>
     </row>
-    <row r="670" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:8">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -8142,7 +8148,7 @@
       <c r="G670" s="2"/>
       <c r="H670" s="2"/>
     </row>
-    <row r="671" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:8">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -8151,7 +8157,7 @@
       <c r="G671" s="2"/>
       <c r="H671" s="2"/>
     </row>
-    <row r="672" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:8">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -8160,7 +8166,7 @@
       <c r="G672" s="2"/>
       <c r="H672" s="2"/>
     </row>
-    <row r="673" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:8">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -8169,7 +8175,7 @@
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
     </row>
-    <row r="674" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:8">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -8178,7 +8184,7 @@
       <c r="G674" s="2"/>
       <c r="H674" s="2"/>
     </row>
-    <row r="675" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:8">
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -8187,7 +8193,7 @@
       <c r="G675" s="2"/>
       <c r="H675" s="2"/>
     </row>
-    <row r="676" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:8">
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -8196,7 +8202,7 @@
       <c r="G676" s="2"/>
       <c r="H676" s="2"/>
     </row>
-    <row r="677" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:8">
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -8205,7 +8211,7 @@
       <c r="G677" s="2"/>
       <c r="H677" s="2"/>
     </row>
-    <row r="678" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:8">
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -8214,7 +8220,7 @@
       <c r="G678" s="2"/>
       <c r="H678" s="2"/>
     </row>
-    <row r="679" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:8">
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -8223,7 +8229,7 @@
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
     </row>
-    <row r="680" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:8">
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -8232,7 +8238,7 @@
       <c r="G680" s="2"/>
       <c r="H680" s="2"/>
     </row>
-    <row r="681" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:8">
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -8241,7 +8247,7 @@
       <c r="G681" s="2"/>
       <c r="H681" s="2"/>
     </row>
-    <row r="682" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:8">
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -8250,7 +8256,7 @@
       <c r="G682" s="2"/>
       <c r="H682" s="2"/>
     </row>
-    <row r="683" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:8">
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -8259,7 +8265,7 @@
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
     </row>
-    <row r="684" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:8">
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -8268,7 +8274,7 @@
       <c r="G684" s="2"/>
       <c r="H684" s="2"/>
     </row>
-    <row r="685" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:8">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -8277,7 +8283,7 @@
       <c r="G685" s="2"/>
       <c r="H685" s="2"/>
     </row>
-    <row r="686" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:8">
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -8286,7 +8292,7 @@
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
     </row>
-    <row r="687" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:8">
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -8295,7 +8301,7 @@
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
     </row>
-    <row r="688" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:8">
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -8304,7 +8310,7 @@
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
     </row>
-    <row r="689" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:8">
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -8313,7 +8319,7 @@
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
     </row>
-    <row r="690" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:8">
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -8322,7 +8328,7 @@
       <c r="G690" s="2"/>
       <c r="H690" s="2"/>
     </row>
-    <row r="691" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:8">
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -8331,7 +8337,7 @@
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
     </row>
-    <row r="692" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:8">
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -8340,7 +8346,7 @@
       <c r="G692" s="2"/>
       <c r="H692" s="2"/>
     </row>
-    <row r="693" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:8">
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -8349,7 +8355,7 @@
       <c r="G693" s="2"/>
       <c r="H693" s="2"/>
     </row>
-    <row r="694" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:8">
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -8358,7 +8364,7 @@
       <c r="G694" s="2"/>
       <c r="H694" s="2"/>
     </row>
-    <row r="695" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:8">
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -8367,7 +8373,7 @@
       <c r="G695" s="2"/>
       <c r="H695" s="2"/>
     </row>
-    <row r="696" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:8">
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -8376,7 +8382,7 @@
       <c r="G696" s="2"/>
       <c r="H696" s="2"/>
     </row>
-    <row r="697" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:8">
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -8385,7 +8391,7 @@
       <c r="G697" s="2"/>
       <c r="H697" s="2"/>
     </row>
-    <row r="698" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:8">
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -8394,7 +8400,7 @@
       <c r="G698" s="2"/>
       <c r="H698" s="2"/>
     </row>
-    <row r="699" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:8">
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -8403,7 +8409,7 @@
       <c r="G699" s="2"/>
       <c r="H699" s="2"/>
     </row>
-    <row r="700" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:8">
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -8412,7 +8418,7 @@
       <c r="G700" s="2"/>
       <c r="H700" s="2"/>
     </row>
-    <row r="701" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:8">
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -8421,7 +8427,7 @@
       <c r="G701" s="2"/>
       <c r="H701" s="2"/>
     </row>
-    <row r="702" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:8">
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -8430,7 +8436,7 @@
       <c r="G702" s="2"/>
       <c r="H702" s="2"/>
     </row>
-    <row r="703" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:8">
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -8439,7 +8445,7 @@
       <c r="G703" s="2"/>
       <c r="H703" s="2"/>
     </row>
-    <row r="704" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:8">
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -8448,7 +8454,7 @@
       <c r="G704" s="2"/>
       <c r="H704" s="2"/>
     </row>
-    <row r="705" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:8">
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -8457,7 +8463,7 @@
       <c r="G705" s="2"/>
       <c r="H705" s="2"/>
     </row>
-    <row r="706" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:8">
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -8466,7 +8472,7 @@
       <c r="G706" s="2"/>
       <c r="H706" s="2"/>
     </row>
-    <row r="707" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:8">
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -8475,7 +8481,7 @@
       <c r="G707" s="2"/>
       <c r="H707" s="2"/>
     </row>
-    <row r="708" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:8">
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -8484,7 +8490,7 @@
       <c r="G708" s="2"/>
       <c r="H708" s="2"/>
     </row>
-    <row r="709" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:8">
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -8493,7 +8499,7 @@
       <c r="G709" s="2"/>
       <c r="H709" s="2"/>
     </row>
-    <row r="710" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:8">
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -8502,7 +8508,7 @@
       <c r="G710" s="2"/>
       <c r="H710" s="2"/>
     </row>
-    <row r="711" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:8">
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -8511,7 +8517,7 @@
       <c r="G711" s="2"/>
       <c r="H711" s="2"/>
     </row>
-    <row r="712" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:8">
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -8520,7 +8526,7 @@
       <c r="G712" s="2"/>
       <c r="H712" s="2"/>
     </row>
-    <row r="713" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:8">
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -8529,7 +8535,7 @@
       <c r="G713" s="2"/>
       <c r="H713" s="2"/>
     </row>
-    <row r="714" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:8">
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -8538,7 +8544,7 @@
       <c r="G714" s="2"/>
       <c r="H714" s="2"/>
     </row>
-    <row r="715" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:8">
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -8547,7 +8553,7 @@
       <c r="G715" s="2"/>
       <c r="H715" s="2"/>
     </row>
-    <row r="716" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:8">
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -8556,7 +8562,7 @@
       <c r="G716" s="2"/>
       <c r="H716" s="2"/>
     </row>
-    <row r="717" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:8">
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -8565,7 +8571,7 @@
       <c r="G717" s="2"/>
       <c r="H717" s="2"/>
     </row>
-    <row r="718" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:8">
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -8574,7 +8580,7 @@
       <c r="G718" s="2"/>
       <c r="H718" s="2"/>
     </row>
-    <row r="719" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:8">
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -8583,7 +8589,7 @@
       <c r="G719" s="2"/>
       <c r="H719" s="2"/>
     </row>
-    <row r="720" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:8">
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -8592,7 +8598,7 @@
       <c r="G720" s="2"/>
       <c r="H720" s="2"/>
     </row>
-    <row r="721" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:8">
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -8601,7 +8607,7 @@
       <c r="G721" s="2"/>
       <c r="H721" s="2"/>
     </row>
-    <row r="722" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:8">
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -8610,7 +8616,7 @@
       <c r="G722" s="2"/>
       <c r="H722" s="2"/>
     </row>
-    <row r="723" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:8">
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -8619,7 +8625,7 @@
       <c r="G723" s="2"/>
       <c r="H723" s="2"/>
     </row>
-    <row r="724" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:8">
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -8628,7 +8634,7 @@
       <c r="G724" s="2"/>
       <c r="H724" s="2"/>
     </row>
-    <row r="725" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:8">
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -8637,7 +8643,7 @@
       <c r="G725" s="2"/>
       <c r="H725" s="2"/>
     </row>
-    <row r="726" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:8">
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -8646,7 +8652,7 @@
       <c r="G726" s="2"/>
       <c r="H726" s="2"/>
     </row>
-    <row r="727" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:8">
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -8655,7 +8661,7 @@
       <c r="G727" s="2"/>
       <c r="H727" s="2"/>
     </row>
-    <row r="728" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:8">
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -8664,7 +8670,7 @@
       <c r="G728" s="2"/>
       <c r="H728" s="2"/>
     </row>
-    <row r="729" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:8">
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -8673,7 +8679,7 @@
       <c r="G729" s="2"/>
       <c r="H729" s="2"/>
     </row>
-    <row r="730" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:8">
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -8682,7 +8688,7 @@
       <c r="G730" s="2"/>
       <c r="H730" s="2"/>
     </row>
-    <row r="731" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:8">
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -8691,7 +8697,7 @@
       <c r="G731" s="2"/>
       <c r="H731" s="2"/>
     </row>
-    <row r="732" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:8">
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -8700,7 +8706,7 @@
       <c r="G732" s="2"/>
       <c r="H732" s="2"/>
     </row>
-    <row r="733" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:8">
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -8709,7 +8715,7 @@
       <c r="G733" s="2"/>
       <c r="H733" s="2"/>
     </row>
-    <row r="734" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:8">
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -8718,7 +8724,7 @@
       <c r="G734" s="2"/>
       <c r="H734" s="2"/>
     </row>
-    <row r="735" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:8">
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -8727,7 +8733,7 @@
       <c r="G735" s="2"/>
       <c r="H735" s="2"/>
     </row>
-    <row r="736" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:8">
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -8736,7 +8742,7 @@
       <c r="G736" s="2"/>
       <c r="H736" s="2"/>
     </row>
-    <row r="737" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:8">
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -8745,7 +8751,7 @@
       <c r="G737" s="2"/>
       <c r="H737" s="2"/>
     </row>
-    <row r="738" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:8">
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -8754,7 +8760,7 @@
       <c r="G738" s="2"/>
       <c r="H738" s="2"/>
     </row>
-    <row r="739" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:8">
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -8763,7 +8769,7 @@
       <c r="G739" s="2"/>
       <c r="H739" s="2"/>
     </row>
-    <row r="740" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:8">
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -8772,7 +8778,7 @@
       <c r="G740" s="2"/>
       <c r="H740" s="2"/>
     </row>
-    <row r="741" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:8">
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -8781,7 +8787,7 @@
       <c r="G741" s="2"/>
       <c r="H741" s="2"/>
     </row>
-    <row r="742" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:8">
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -8790,7 +8796,7 @@
       <c r="G742" s="2"/>
       <c r="H742" s="2"/>
     </row>
-    <row r="743" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:8">
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -8799,7 +8805,7 @@
       <c r="G743" s="2"/>
       <c r="H743" s="2"/>
     </row>
-    <row r="744" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:8">
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -8808,7 +8814,7 @@
       <c r="G744" s="2"/>
       <c r="H744" s="2"/>
     </row>
-    <row r="745" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:8">
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -8817,7 +8823,7 @@
       <c r="G745" s="2"/>
       <c r="H745" s="2"/>
     </row>
-    <row r="746" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:8">
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -8826,7 +8832,7 @@
       <c r="G746" s="2"/>
       <c r="H746" s="2"/>
     </row>
-    <row r="747" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:8">
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -8835,7 +8841,7 @@
       <c r="G747" s="2"/>
       <c r="H747" s="2"/>
     </row>
-    <row r="748" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:8">
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -8844,7 +8850,7 @@
       <c r="G748" s="2"/>
       <c r="H748" s="2"/>
     </row>
-    <row r="749" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:8">
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -8853,7 +8859,7 @@
       <c r="G749" s="2"/>
       <c r="H749" s="2"/>
     </row>
-    <row r="750" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:8">
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -8862,7 +8868,7 @@
       <c r="G750" s="2"/>
       <c r="H750" s="2"/>
     </row>
-    <row r="751" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:8">
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -8871,7 +8877,7 @@
       <c r="G751" s="2"/>
       <c r="H751" s="2"/>
     </row>
-    <row r="752" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:8">
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -8880,7 +8886,7 @@
       <c r="G752" s="2"/>
       <c r="H752" s="2"/>
     </row>
-    <row r="753" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:8">
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -8889,7 +8895,7 @@
       <c r="G753" s="2"/>
       <c r="H753" s="2"/>
     </row>
-    <row r="754" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:8">
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -8898,7 +8904,7 @@
       <c r="G754" s="2"/>
       <c r="H754" s="2"/>
     </row>
-    <row r="755" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:8">
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -8907,7 +8913,7 @@
       <c r="G755" s="2"/>
       <c r="H755" s="2"/>
     </row>
-    <row r="756" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:8">
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -8916,7 +8922,7 @@
       <c r="G756" s="2"/>
       <c r="H756" s="2"/>
     </row>
-    <row r="757" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:8">
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -8925,7 +8931,7 @@
       <c r="G757" s="2"/>
       <c r="H757" s="2"/>
     </row>
-    <row r="758" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:8">
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -8934,7 +8940,7 @@
       <c r="G758" s="2"/>
       <c r="H758" s="2"/>
     </row>
-    <row r="759" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:8">
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -8943,7 +8949,7 @@
       <c r="G759" s="2"/>
       <c r="H759" s="2"/>
     </row>
-    <row r="760" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:8">
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -8952,7 +8958,7 @@
       <c r="G760" s="2"/>
       <c r="H760" s="2"/>
     </row>
-    <row r="761" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:8">
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -8961,7 +8967,7 @@
       <c r="G761" s="2"/>
       <c r="H761" s="2"/>
     </row>
-    <row r="762" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:8">
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -8970,7 +8976,7 @@
       <c r="G762" s="2"/>
       <c r="H762" s="2"/>
     </row>
-    <row r="763" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:8">
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -8979,7 +8985,7 @@
       <c r="G763" s="2"/>
       <c r="H763" s="2"/>
     </row>
-    <row r="764" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:8">
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -8988,7 +8994,7 @@
       <c r="G764" s="2"/>
       <c r="H764" s="2"/>
     </row>
-    <row r="765" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:8">
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -8997,7 +9003,7 @@
       <c r="G765" s="2"/>
       <c r="H765" s="2"/>
     </row>
-    <row r="766" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:8">
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -9006,7 +9012,7 @@
       <c r="G766" s="2"/>
       <c r="H766" s="2"/>
     </row>
-    <row r="767" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:8">
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -9015,7 +9021,7 @@
       <c r="G767" s="2"/>
       <c r="H767" s="2"/>
     </row>
-    <row r="768" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:8">
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -9024,7 +9030,7 @@
       <c r="G768" s="2"/>
       <c r="H768" s="2"/>
     </row>
-    <row r="769" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:8">
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -9033,7 +9039,7 @@
       <c r="G769" s="2"/>
       <c r="H769" s="2"/>
     </row>
-    <row r="770" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:8">
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -9042,7 +9048,7 @@
       <c r="G770" s="2"/>
       <c r="H770" s="2"/>
     </row>
-    <row r="771" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:8">
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -9051,7 +9057,7 @@
       <c r="G771" s="2"/>
       <c r="H771" s="2"/>
     </row>
-    <row r="772" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:8">
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -9060,7 +9066,7 @@
       <c r="G772" s="2"/>
       <c r="H772" s="2"/>
     </row>
-    <row r="773" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:8">
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -9069,7 +9075,7 @@
       <c r="G773" s="2"/>
       <c r="H773" s="2"/>
     </row>
-    <row r="774" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:8">
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -9078,7 +9084,7 @@
       <c r="G774" s="2"/>
       <c r="H774" s="2"/>
     </row>
-    <row r="775" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:8">
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -9087,7 +9093,7 @@
       <c r="G775" s="2"/>
       <c r="H775" s="2"/>
     </row>
-    <row r="776" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:8">
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -9096,7 +9102,7 @@
       <c r="G776" s="2"/>
       <c r="H776" s="2"/>
     </row>
-    <row r="777" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:8">
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -9105,7 +9111,7 @@
       <c r="G777" s="2"/>
       <c r="H777" s="2"/>
     </row>
-    <row r="778" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:8">
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -9114,7 +9120,7 @@
       <c r="G778" s="2"/>
       <c r="H778" s="2"/>
     </row>
-    <row r="779" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:8">
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -9123,7 +9129,7 @@
       <c r="G779" s="2"/>
       <c r="H779" s="2"/>
     </row>
-    <row r="780" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:8">
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -9132,7 +9138,7 @@
       <c r="G780" s="2"/>
       <c r="H780" s="2"/>
     </row>
-    <row r="781" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:8">
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -9141,7 +9147,7 @@
       <c r="G781" s="2"/>
       <c r="H781" s="2"/>
     </row>
-    <row r="782" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:8">
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -9150,7 +9156,7 @@
       <c r="G782" s="2"/>
       <c r="H782" s="2"/>
     </row>
-    <row r="783" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:8">
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -9159,7 +9165,7 @@
       <c r="G783" s="2"/>
       <c r="H783" s="2"/>
     </row>
-    <row r="784" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:8">
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -9168,7 +9174,7 @@
       <c r="G784" s="2"/>
       <c r="H784" s="2"/>
     </row>
-    <row r="785" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:8">
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -9177,7 +9183,7 @@
       <c r="G785" s="2"/>
       <c r="H785" s="2"/>
     </row>
-    <row r="786" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:8">
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -9186,7 +9192,7 @@
       <c r="G786" s="2"/>
       <c r="H786" s="2"/>
     </row>
-    <row r="787" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:8">
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -9195,7 +9201,7 @@
       <c r="G787" s="2"/>
       <c r="H787" s="2"/>
     </row>
-    <row r="788" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:8">
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -9204,7 +9210,7 @@
       <c r="G788" s="2"/>
       <c r="H788" s="2"/>
     </row>
-    <row r="789" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:8">
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -9213,7 +9219,7 @@
       <c r="G789" s="2"/>
       <c r="H789" s="2"/>
     </row>
-    <row r="790" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:8">
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -9222,7 +9228,7 @@
       <c r="G790" s="2"/>
       <c r="H790" s="2"/>
     </row>
-    <row r="791" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:8">
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -9231,7 +9237,7 @@
       <c r="G791" s="2"/>
       <c r="H791" s="2"/>
     </row>
-    <row r="792" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:8">
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -9240,7 +9246,7 @@
       <c r="G792" s="2"/>
       <c r="H792" s="2"/>
     </row>
-    <row r="793" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:8">
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -9249,7 +9255,7 @@
       <c r="G793" s="2"/>
       <c r="H793" s="2"/>
     </row>
-    <row r="794" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:8">
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -9258,7 +9264,7 @@
       <c r="G794" s="2"/>
       <c r="H794" s="2"/>
     </row>
-    <row r="795" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:8">
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -9267,7 +9273,7 @@
       <c r="G795" s="2"/>
       <c r="H795" s="2"/>
     </row>
-    <row r="796" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:8">
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -9276,7 +9282,7 @@
       <c r="G796" s="2"/>
       <c r="H796" s="2"/>
     </row>
-    <row r="797" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:8">
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -9285,7 +9291,7 @@
       <c r="G797" s="2"/>
       <c r="H797" s="2"/>
     </row>
-    <row r="798" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:8">
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -9294,7 +9300,7 @@
       <c r="G798" s="2"/>
       <c r="H798" s="2"/>
     </row>
-    <row r="799" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:8">
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -9303,7 +9309,7 @@
       <c r="G799" s="2"/>
       <c r="H799" s="2"/>
     </row>
-    <row r="800" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:8">
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -9312,7 +9318,7 @@
       <c r="G800" s="2"/>
       <c r="H800" s="2"/>
     </row>
-    <row r="801" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:8">
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -9321,7 +9327,7 @@
       <c r="G801" s="2"/>
       <c r="H801" s="2"/>
     </row>
-    <row r="802" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:8">
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -9330,7 +9336,7 @@
       <c r="G802" s="2"/>
       <c r="H802" s="2"/>
     </row>
-    <row r="803" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:8">
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -9339,7 +9345,7 @@
       <c r="G803" s="2"/>
       <c r="H803" s="2"/>
     </row>
-    <row r="804" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:8">
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -9348,7 +9354,7 @@
       <c r="G804" s="2"/>
       <c r="H804" s="2"/>
     </row>
-    <row r="805" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:8">
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -9357,7 +9363,7 @@
       <c r="G805" s="2"/>
       <c r="H805" s="2"/>
     </row>
-    <row r="806" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:8">
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -9366,7 +9372,7 @@
       <c r="G806" s="2"/>
       <c r="H806" s="2"/>
     </row>
-    <row r="807" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:8">
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -9375,7 +9381,7 @@
       <c r="G807" s="2"/>
       <c r="H807" s="2"/>
     </row>
-    <row r="808" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:8">
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -9384,7 +9390,7 @@
       <c r="G808" s="2"/>
       <c r="H808" s="2"/>
     </row>
-    <row r="809" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:8">
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -9393,7 +9399,7 @@
       <c r="G809" s="2"/>
       <c r="H809" s="2"/>
     </row>
-    <row r="810" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:8">
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -9402,7 +9408,7 @@
       <c r="G810" s="2"/>
       <c r="H810" s="2"/>
     </row>
-    <row r="811" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:8">
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -9411,7 +9417,7 @@
       <c r="G811" s="2"/>
       <c r="H811" s="2"/>
     </row>
-    <row r="812" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:8">
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -9420,7 +9426,7 @@
       <c r="G812" s="2"/>
       <c r="H812" s="2"/>
     </row>
-    <row r="813" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:8">
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -9429,7 +9435,7 @@
       <c r="G813" s="2"/>
       <c r="H813" s="2"/>
     </row>
-    <row r="814" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:8">
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -9438,7 +9444,7 @@
       <c r="G814" s="2"/>
       <c r="H814" s="2"/>
     </row>
-    <row r="815" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:8">
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -9447,7 +9453,7 @@
       <c r="G815" s="2"/>
       <c r="H815" s="2"/>
     </row>
-    <row r="816" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:8">
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -9456,7 +9462,7 @@
       <c r="G816" s="2"/>
       <c r="H816" s="2"/>
     </row>
-    <row r="817" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:8">
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -9465,7 +9471,7 @@
       <c r="G817" s="2"/>
       <c r="H817" s="2"/>
     </row>
-    <row r="818" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:8">
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -9474,7 +9480,7 @@
       <c r="G818" s="2"/>
       <c r="H818" s="2"/>
     </row>
-    <row r="819" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:8">
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -9483,7 +9489,7 @@
       <c r="G819" s="2"/>
       <c r="H819" s="2"/>
     </row>
-    <row r="820" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:8">
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -9492,7 +9498,7 @@
       <c r="G820" s="2"/>
       <c r="H820" s="2"/>
     </row>
-    <row r="821" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:8">
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -9501,7 +9507,7 @@
       <c r="G821" s="2"/>
       <c r="H821" s="2"/>
     </row>
-    <row r="822" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:8">
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -9510,7 +9516,7 @@
       <c r="G822" s="2"/>
       <c r="H822" s="2"/>
     </row>
-    <row r="823" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:8">
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -9519,7 +9525,7 @@
       <c r="G823" s="2"/>
       <c r="H823" s="2"/>
     </row>
-    <row r="824" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:8">
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -9528,7 +9534,7 @@
       <c r="G824" s="2"/>
       <c r="H824" s="2"/>
     </row>
-    <row r="825" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:8">
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -9537,7 +9543,7 @@
       <c r="G825" s="2"/>
       <c r="H825" s="2"/>
     </row>
-    <row r="826" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:8">
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -9546,7 +9552,7 @@
       <c r="G826" s="2"/>
       <c r="H826" s="2"/>
     </row>
-    <row r="827" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:8">
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -9555,7 +9561,7 @@
       <c r="G827" s="2"/>
       <c r="H827" s="2"/>
     </row>
-    <row r="828" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:8">
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -9564,7 +9570,7 @@
       <c r="G828" s="2"/>
       <c r="H828" s="2"/>
     </row>
-    <row r="829" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:8">
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -9573,7 +9579,7 @@
       <c r="G829" s="2"/>
       <c r="H829" s="2"/>
     </row>
-    <row r="830" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:8">
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -9582,7 +9588,7 @@
       <c r="G830" s="2"/>
       <c r="H830" s="2"/>
     </row>
-    <row r="831" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:8">
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -9591,7 +9597,7 @@
       <c r="G831" s="2"/>
       <c r="H831" s="2"/>
     </row>
-    <row r="832" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:8">
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -9600,7 +9606,7 @@
       <c r="G832" s="2"/>
       <c r="H832" s="2"/>
     </row>
-    <row r="833" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:8">
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -9609,7 +9615,7 @@
       <c r="G833" s="2"/>
       <c r="H833" s="2"/>
     </row>
-    <row r="834" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:8">
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -9618,7 +9624,7 @@
       <c r="G834" s="2"/>
       <c r="H834" s="2"/>
     </row>
-    <row r="835" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:8">
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -9627,7 +9633,7 @@
       <c r="G835" s="2"/>
       <c r="H835" s="2"/>
     </row>
-    <row r="836" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:8">
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -9636,7 +9642,7 @@
       <c r="G836" s="2"/>
       <c r="H836" s="2"/>
     </row>
-    <row r="837" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:8">
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -9645,7 +9651,7 @@
       <c r="G837" s="2"/>
       <c r="H837" s="2"/>
     </row>
-    <row r="838" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:8">
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -9654,7 +9660,7 @@
       <c r="G838" s="2"/>
       <c r="H838" s="2"/>
     </row>
-    <row r="839" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:8">
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -9663,7 +9669,7 @@
       <c r="G839" s="2"/>
       <c r="H839" s="2"/>
     </row>
-    <row r="840" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:8">
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -9672,7 +9678,7 @@
       <c r="G840" s="2"/>
       <c r="H840" s="2"/>
     </row>
-    <row r="841" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:8">
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -9681,7 +9687,7 @@
       <c r="G841" s="2"/>
       <c r="H841" s="2"/>
     </row>
-    <row r="842" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:8">
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -9690,7 +9696,7 @@
       <c r="G842" s="2"/>
       <c r="H842" s="2"/>
     </row>
-    <row r="843" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:8">
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -9699,7 +9705,7 @@
       <c r="G843" s="2"/>
       <c r="H843" s="2"/>
     </row>
-    <row r="844" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:8">
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -9708,7 +9714,7 @@
       <c r="G844" s="2"/>
       <c r="H844" s="2"/>
     </row>
-    <row r="845" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:8">
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -9717,7 +9723,7 @@
       <c r="G845" s="2"/>
       <c r="H845" s="2"/>
     </row>
-    <row r="846" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:8">
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -9726,7 +9732,7 @@
       <c r="G846" s="2"/>
       <c r="H846" s="2"/>
     </row>
-    <row r="847" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:8">
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -9735,7 +9741,7 @@
       <c r="G847" s="2"/>
       <c r="H847" s="2"/>
     </row>
-    <row r="848" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:8">
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -9744,7 +9750,7 @@
       <c r="G848" s="2"/>
       <c r="H848" s="2"/>
     </row>
-    <row r="849" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:8">
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -9753,7 +9759,7 @@
       <c r="G849" s="2"/>
       <c r="H849" s="2"/>
     </row>
-    <row r="850" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:8">
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -9762,7 +9768,7 @@
       <c r="G850" s="2"/>
       <c r="H850" s="2"/>
     </row>
-    <row r="851" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:8">
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -9771,7 +9777,7 @@
       <c r="G851" s="2"/>
       <c r="H851" s="2"/>
     </row>
-    <row r="852" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:8">
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -9780,7 +9786,7 @@
       <c r="G852" s="2"/>
       <c r="H852" s="2"/>
     </row>
-    <row r="853" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:8">
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -9789,7 +9795,7 @@
       <c r="G853" s="2"/>
       <c r="H853" s="2"/>
     </row>
-    <row r="854" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:8">
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -9798,7 +9804,7 @@
       <c r="G854" s="2"/>
       <c r="H854" s="2"/>
     </row>
-    <row r="855" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:8">
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -9807,7 +9813,7 @@
       <c r="G855" s="2"/>
       <c r="H855" s="2"/>
     </row>
-    <row r="856" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:8">
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -9816,7 +9822,7 @@
       <c r="G856" s="2"/>
       <c r="H856" s="2"/>
     </row>
-    <row r="857" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:8">
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -9825,7 +9831,7 @@
       <c r="G857" s="2"/>
       <c r="H857" s="2"/>
     </row>
-    <row r="858" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:8">
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -9834,7 +9840,7 @@
       <c r="G858" s="2"/>
       <c r="H858" s="2"/>
     </row>
-    <row r="859" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:8">
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -9843,7 +9849,7 @@
       <c r="G859" s="2"/>
       <c r="H859" s="2"/>
     </row>
-    <row r="860" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:8">
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -9852,7 +9858,7 @@
       <c r="G860" s="2"/>
       <c r="H860" s="2"/>
     </row>
-    <row r="861" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:8">
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -9861,7 +9867,7 @@
       <c r="G861" s="2"/>
       <c r="H861" s="2"/>
     </row>
-    <row r="862" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:8">
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -9870,7 +9876,7 @@
       <c r="G862" s="2"/>
       <c r="H862" s="2"/>
     </row>
-    <row r="863" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:8">
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -9879,7 +9885,7 @@
       <c r="G863" s="2"/>
       <c r="H863" s="2"/>
     </row>
-    <row r="864" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:8">
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -9888,7 +9894,7 @@
       <c r="G864" s="2"/>
       <c r="H864" s="2"/>
     </row>
-    <row r="865" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:8">
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -9897,7 +9903,7 @@
       <c r="G865" s="2"/>
       <c r="H865" s="2"/>
     </row>
-    <row r="866" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:8">
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -9906,7 +9912,7 @@
       <c r="G866" s="2"/>
       <c r="H866" s="2"/>
     </row>
-    <row r="867" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:8">
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -9915,7 +9921,7 @@
       <c r="G867" s="2"/>
       <c r="H867" s="2"/>
     </row>
-    <row r="868" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:8">
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -9924,7 +9930,7 @@
       <c r="G868" s="2"/>
       <c r="H868" s="2"/>
     </row>
-    <row r="869" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:8">
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -9933,7 +9939,7 @@
       <c r="G869" s="2"/>
       <c r="H869" s="2"/>
     </row>
-    <row r="870" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:8">
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -9942,7 +9948,7 @@
       <c r="G870" s="2"/>
       <c r="H870" s="2"/>
     </row>
-    <row r="871" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:8">
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -9951,7 +9957,7 @@
       <c r="G871" s="2"/>
       <c r="H871" s="2"/>
     </row>
-    <row r="872" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:8">
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -9960,7 +9966,7 @@
       <c r="G872" s="2"/>
       <c r="H872" s="2"/>
     </row>
-    <row r="873" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:8">
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -9969,7 +9975,7 @@
       <c r="G873" s="2"/>
       <c r="H873" s="2"/>
     </row>
-    <row r="874" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:8">
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -9978,7 +9984,7 @@
       <c r="G874" s="2"/>
       <c r="H874" s="2"/>
     </row>
-    <row r="875" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:8">
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -9987,7 +9993,7 @@
       <c r="G875" s="2"/>
       <c r="H875" s="2"/>
     </row>
-    <row r="876" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:8">
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -9996,7 +10002,7 @@
       <c r="G876" s="2"/>
       <c r="H876" s="2"/>
     </row>
-    <row r="877" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:8">
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -10005,7 +10011,7 @@
       <c r="G877" s="2"/>
       <c r="H877" s="2"/>
     </row>
-    <row r="878" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:8">
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -10014,7 +10020,7 @@
       <c r="G878" s="2"/>
       <c r="H878" s="2"/>
     </row>
-    <row r="879" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:8">
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -10023,7 +10029,7 @@
       <c r="G879" s="2"/>
       <c r="H879" s="2"/>
     </row>
-    <row r="880" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:8">
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -10032,7 +10038,7 @@
       <c r="G880" s="2"/>
       <c r="H880" s="2"/>
     </row>
-    <row r="881" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:8">
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -10041,7 +10047,7 @@
       <c r="G881" s="2"/>
       <c r="H881" s="2"/>
     </row>
-    <row r="882" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:8">
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -10050,7 +10056,7 @@
       <c r="G882" s="2"/>
       <c r="H882" s="2"/>
     </row>
-    <row r="883" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:8">
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -10059,7 +10065,7 @@
       <c r="G883" s="2"/>
       <c r="H883" s="2"/>
     </row>
-    <row r="884" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:8">
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -10068,7 +10074,7 @@
       <c r="G884" s="2"/>
       <c r="H884" s="2"/>
     </row>
-    <row r="885" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:8">
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -10077,7 +10083,7 @@
       <c r="G885" s="2"/>
       <c r="H885" s="2"/>
     </row>
-    <row r="886" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:8">
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -10086,7 +10092,7 @@
       <c r="G886" s="2"/>
       <c r="H886" s="2"/>
     </row>
-    <row r="887" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:8">
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -10095,7 +10101,7 @@
       <c r="G887" s="2"/>
       <c r="H887" s="2"/>
     </row>
-    <row r="888" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:8">
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -10104,7 +10110,7 @@
       <c r="G888" s="2"/>
       <c r="H888" s="2"/>
     </row>
-    <row r="889" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:8">
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -10113,7 +10119,7 @@
       <c r="G889" s="2"/>
       <c r="H889" s="2"/>
     </row>
-    <row r="890" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:8">
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -10122,7 +10128,7 @@
       <c r="G890" s="2"/>
       <c r="H890" s="2"/>
     </row>
-    <row r="891" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:8">
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -10131,7 +10137,7 @@
       <c r="G891" s="2"/>
       <c r="H891" s="2"/>
     </row>
-    <row r="892" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:8">
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -10140,7 +10146,7 @@
       <c r="G892" s="2"/>
       <c r="H892" s="2"/>
     </row>
-    <row r="893" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:8">
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -10149,7 +10155,7 @@
       <c r="G893" s="2"/>
       <c r="H893" s="2"/>
     </row>
-    <row r="894" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:8">
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -10158,7 +10164,7 @@
       <c r="G894" s="2"/>
       <c r="H894" s="2"/>
     </row>
-    <row r="895" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:8">
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -10167,7 +10173,7 @@
       <c r="G895" s="2"/>
       <c r="H895" s="2"/>
     </row>
-    <row r="896" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:8">
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -10176,7 +10182,7 @@
       <c r="G896" s="2"/>
       <c r="H896" s="2"/>
     </row>
-    <row r="897" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:8">
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -10185,7 +10191,7 @@
       <c r="G897" s="2"/>
       <c r="H897" s="2"/>
     </row>
-    <row r="898" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:8">
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -10194,7 +10200,7 @@
       <c r="G898" s="2"/>
       <c r="H898" s="2"/>
     </row>
-    <row r="899" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:8">
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -10203,7 +10209,7 @@
       <c r="G899" s="2"/>
       <c r="H899" s="2"/>
     </row>
-    <row r="900" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:8">
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -10212,7 +10218,7 @@
       <c r="G900" s="2"/>
       <c r="H900" s="2"/>
     </row>
-    <row r="901" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:8">
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -10221,7 +10227,7 @@
       <c r="G901" s="2"/>
       <c r="H901" s="2"/>
     </row>
-    <row r="902" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:8">
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -10230,7 +10236,7 @@
       <c r="G902" s="2"/>
       <c r="H902" s="2"/>
     </row>
-    <row r="903" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:8">
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -10239,7 +10245,7 @@
       <c r="G903" s="2"/>
       <c r="H903" s="2"/>
     </row>
-    <row r="904" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:8">
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -10248,7 +10254,7 @@
       <c r="G904" s="2"/>
       <c r="H904" s="2"/>
     </row>
-    <row r="905" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:8">
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -10257,7 +10263,7 @@
       <c r="G905" s="2"/>
       <c r="H905" s="2"/>
     </row>
-    <row r="906" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:8">
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -10266,7 +10272,7 @@
       <c r="G906" s="2"/>
       <c r="H906" s="2"/>
     </row>
-    <row r="907" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:8">
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -10275,7 +10281,7 @@
       <c r="G907" s="2"/>
       <c r="H907" s="2"/>
     </row>
-    <row r="908" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:8">
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -10284,7 +10290,7 @@
       <c r="G908" s="2"/>
       <c r="H908" s="2"/>
     </row>
-    <row r="909" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:8">
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -10293,7 +10299,7 @@
       <c r="G909" s="2"/>
       <c r="H909" s="2"/>
     </row>
-    <row r="910" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:8">
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -10302,7 +10308,7 @@
       <c r="G910" s="2"/>
       <c r="H910" s="2"/>
     </row>
-    <row r="911" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:8">
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -10311,7 +10317,7 @@
       <c r="G911" s="2"/>
       <c r="H911" s="2"/>
     </row>
-    <row r="912" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:8">
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -10320,7 +10326,7 @@
       <c r="G912" s="2"/>
       <c r="H912" s="2"/>
     </row>
-    <row r="913" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:8">
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -10329,7 +10335,7 @@
       <c r="G913" s="2"/>
       <c r="H913" s="2"/>
     </row>
-    <row r="914" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:8">
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -10338,7 +10344,7 @@
       <c r="G914" s="2"/>
       <c r="H914" s="2"/>
     </row>
-    <row r="915" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:8">
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -10347,7 +10353,7 @@
       <c r="G915" s="2"/>
       <c r="H915" s="2"/>
     </row>
-    <row r="916" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:8">
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -10356,7 +10362,7 @@
       <c r="G916" s="2"/>
       <c r="H916" s="2"/>
     </row>
-    <row r="917" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:8">
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -10365,7 +10371,7 @@
       <c r="G917" s="2"/>
       <c r="H917" s="2"/>
     </row>
-    <row r="918" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:8">
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -10374,7 +10380,7 @@
       <c r="G918" s="2"/>
       <c r="H918" s="2"/>
     </row>
-    <row r="919" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:8">
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -10383,7 +10389,7 @@
       <c r="G919" s="2"/>
       <c r="H919" s="2"/>
     </row>
-    <row r="920" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:8">
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -10392,7 +10398,7 @@
       <c r="G920" s="2"/>
       <c r="H920" s="2"/>
     </row>
-    <row r="921" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:8">
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -10401,7 +10407,7 @@
       <c r="G921" s="2"/>
       <c r="H921" s="2"/>
     </row>
-    <row r="922" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:8">
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -10410,7 +10416,7 @@
       <c r="G922" s="2"/>
       <c r="H922" s="2"/>
     </row>
-    <row r="923" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:8">
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -10419,7 +10425,7 @@
       <c r="G923" s="2"/>
       <c r="H923" s="2"/>
     </row>
-    <row r="924" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:8">
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -10428,7 +10434,7 @@
       <c r="G924" s="2"/>
       <c r="H924" s="2"/>
     </row>
-    <row r="925" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:8">
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -10437,7 +10443,7 @@
       <c r="G925" s="2"/>
       <c r="H925" s="2"/>
     </row>
-    <row r="926" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:8">
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -10446,7 +10452,7 @@
       <c r="G926" s="2"/>
       <c r="H926" s="2"/>
     </row>
-    <row r="927" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:8">
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -10455,7 +10461,7 @@
       <c r="G927" s="2"/>
       <c r="H927" s="2"/>
     </row>
-    <row r="928" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:8">
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -10464,7 +10470,7 @@
       <c r="G928" s="2"/>
       <c r="H928" s="2"/>
     </row>
-    <row r="929" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:8">
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -10473,7 +10479,7 @@
       <c r="G929" s="2"/>
       <c r="H929" s="2"/>
     </row>
-    <row r="930" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:8">
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -10482,7 +10488,7 @@
       <c r="G930" s="2"/>
       <c r="H930" s="2"/>
     </row>
-    <row r="931" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:8">
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -10491,7 +10497,7 @@
       <c r="G931" s="2"/>
       <c r="H931" s="2"/>
     </row>
-    <row r="932" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:8">
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -10500,7 +10506,7 @@
       <c r="G932" s="2"/>
       <c r="H932" s="2"/>
     </row>
-    <row r="933" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:8">
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -10509,7 +10515,7 @@
       <c r="G933" s="2"/>
       <c r="H933" s="2"/>
     </row>
-    <row r="934" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:8">
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -10518,7 +10524,7 @@
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
     </row>
-    <row r="935" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:8">
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -10527,7 +10533,7 @@
       <c r="G935" s="2"/>
       <c r="H935" s="2"/>
     </row>
-    <row r="936" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:8">
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -10536,7 +10542,7 @@
       <c r="G936" s="2"/>
       <c r="H936" s="2"/>
     </row>
-    <row r="937" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:8">
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -10545,7 +10551,7 @@
       <c r="G937" s="2"/>
       <c r="H937" s="2"/>
     </row>
-    <row r="938" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:8">
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -10554,7 +10560,7 @@
       <c r="G938" s="2"/>
       <c r="H938" s="2"/>
     </row>
-    <row r="939" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:8">
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -10563,7 +10569,7 @@
       <c r="G939" s="2"/>
       <c r="H939" s="2"/>
     </row>
-    <row r="940" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:8">
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -10572,7 +10578,7 @@
       <c r="G940" s="2"/>
       <c r="H940" s="2"/>
     </row>
-    <row r="941" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:8">
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -10581,7 +10587,7 @@
       <c r="G941" s="2"/>
       <c r="H941" s="2"/>
     </row>
-    <row r="942" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:8">
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
@@ -10590,7 +10596,7 @@
       <c r="G942" s="2"/>
       <c r="H942" s="2"/>
     </row>
-    <row r="943" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:8">
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
@@ -10599,7 +10605,7 @@
       <c r="G943" s="2"/>
       <c r="H943" s="2"/>
     </row>
-    <row r="944" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:8">
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
@@ -10608,7 +10614,7 @@
       <c r="G944" s="2"/>
       <c r="H944" s="2"/>
     </row>
-    <row r="945" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:8">
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
@@ -10617,7 +10623,7 @@
       <c r="G945" s="2"/>
       <c r="H945" s="2"/>
     </row>
-    <row r="946" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:8">
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
@@ -10626,7 +10632,7 @@
       <c r="G946" s="2"/>
       <c r="H946" s="2"/>
     </row>
-    <row r="947" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:8">
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
@@ -10635,7 +10641,7 @@
       <c r="G947" s="2"/>
       <c r="H947" s="2"/>
     </row>
-    <row r="948" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:8">
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
@@ -10644,7 +10650,7 @@
       <c r="G948" s="2"/>
       <c r="H948" s="2"/>
     </row>
-    <row r="949" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:8">
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
@@ -10653,7 +10659,7 @@
       <c r="G949" s="2"/>
       <c r="H949" s="2"/>
     </row>
-    <row r="950" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:8">
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
@@ -10662,7 +10668,7 @@
       <c r="G950" s="2"/>
       <c r="H950" s="2"/>
     </row>
-    <row r="951" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:8">
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
@@ -10671,7 +10677,7 @@
       <c r="G951" s="2"/>
       <c r="H951" s="2"/>
     </row>
-    <row r="952" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:8">
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
@@ -10680,7 +10686,7 @@
       <c r="G952" s="2"/>
       <c r="H952" s="2"/>
     </row>
-    <row r="953" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:8">
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
@@ -10689,7 +10695,7 @@
       <c r="G953" s="2"/>
       <c r="H953" s="2"/>
     </row>
-    <row r="954" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:8">
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
@@ -10698,7 +10704,7 @@
       <c r="G954" s="2"/>
       <c r="H954" s="2"/>
     </row>
-    <row r="955" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:8">
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
@@ -10707,7 +10713,7 @@
       <c r="G955" s="2"/>
       <c r="H955" s="2"/>
     </row>
-    <row r="956" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:8">
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
@@ -10716,7 +10722,7 @@
       <c r="G956" s="2"/>
       <c r="H956" s="2"/>
     </row>
-    <row r="957" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:8">
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
@@ -10725,7 +10731,7 @@
       <c r="G957" s="2"/>
       <c r="H957" s="2"/>
     </row>
-    <row r="958" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:8">
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
@@ -10734,7 +10740,7 @@
       <c r="G958" s="2"/>
       <c r="H958" s="2"/>
     </row>
-    <row r="959" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:8">
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
@@ -10743,7 +10749,7 @@
       <c r="G959" s="2"/>
       <c r="H959" s="2"/>
     </row>
-    <row r="960" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:8">
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
@@ -10752,7 +10758,7 @@
       <c r="G960" s="2"/>
       <c r="H960" s="2"/>
     </row>
-    <row r="961" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:8">
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
@@ -10761,7 +10767,7 @@
       <c r="G961" s="2"/>
       <c r="H961" s="2"/>
     </row>
-    <row r="962" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:8">
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
@@ -10770,7 +10776,7 @@
       <c r="G962" s="2"/>
       <c r="H962" s="2"/>
     </row>
-    <row r="963" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:8">
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
@@ -10779,7 +10785,7 @@
       <c r="G963" s="2"/>
       <c r="H963" s="2"/>
     </row>
-    <row r="964" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:8">
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
@@ -10788,7 +10794,7 @@
       <c r="G964" s="2"/>
       <c r="H964" s="2"/>
     </row>
-    <row r="965" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:8">
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
@@ -10797,7 +10803,7 @@
       <c r="G965" s="2"/>
       <c r="H965" s="2"/>
     </row>
-    <row r="966" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:8">
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
@@ -10806,7 +10812,7 @@
       <c r="G966" s="2"/>
       <c r="H966" s="2"/>
     </row>
-    <row r="967" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:8">
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
@@ -10815,7 +10821,7 @@
       <c r="G967" s="2"/>
       <c r="H967" s="2"/>
     </row>
-    <row r="968" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:8">
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
@@ -10824,7 +10830,7 @@
       <c r="G968" s="2"/>
       <c r="H968" s="2"/>
     </row>
-    <row r="969" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:8">
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
@@ -10833,7 +10839,7 @@
       <c r="G969" s="2"/>
       <c r="H969" s="2"/>
     </row>
-    <row r="970" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:8">
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
@@ -10842,7 +10848,7 @@
       <c r="G970" s="2"/>
       <c r="H970" s="2"/>
     </row>
-    <row r="971" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:8">
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
@@ -10851,7 +10857,7 @@
       <c r="G971" s="2"/>
       <c r="H971" s="2"/>
     </row>
-    <row r="972" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:8">
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
@@ -10860,7 +10866,7 @@
       <c r="G972" s="2"/>
       <c r="H972" s="2"/>
     </row>
-    <row r="973" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:8">
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
@@ -10869,7 +10875,7 @@
       <c r="G973" s="2"/>
       <c r="H973" s="2"/>
     </row>
-    <row r="974" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:8">
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
@@ -10878,7 +10884,7 @@
       <c r="G974" s="2"/>
       <c r="H974" s="2"/>
     </row>
-    <row r="975" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:8">
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
@@ -10887,7 +10893,7 @@
       <c r="G975" s="2"/>
       <c r="H975" s="2"/>
     </row>
-    <row r="976" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:8">
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
@@ -10896,7 +10902,7 @@
       <c r="G976" s="2"/>
       <c r="H976" s="2"/>
     </row>
-    <row r="977" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:8">
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
@@ -10905,7 +10911,7 @@
       <c r="G977" s="2"/>
       <c r="H977" s="2"/>
     </row>
-    <row r="978" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:8">
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
@@ -10914,7 +10920,7 @@
       <c r="G978" s="2"/>
       <c r="H978" s="2"/>
     </row>
-    <row r="979" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:8">
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
@@ -10923,7 +10929,7 @@
       <c r="G979" s="2"/>
       <c r="H979" s="2"/>
     </row>
-    <row r="980" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:8">
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
@@ -10932,7 +10938,7 @@
       <c r="G980" s="2"/>
       <c r="H980" s="2"/>
     </row>
-    <row r="981" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:8">
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
@@ -10941,7 +10947,7 @@
       <c r="G981" s="2"/>
       <c r="H981" s="2"/>
     </row>
-    <row r="982" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:8">
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
@@ -10950,7 +10956,7 @@
       <c r="G982" s="2"/>
       <c r="H982" s="2"/>
     </row>
-    <row r="983" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:8">
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
@@ -10959,7 +10965,7 @@
       <c r="G983" s="2"/>
       <c r="H983" s="2"/>
     </row>
-    <row r="984" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:8">
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
@@ -10968,7 +10974,7 @@
       <c r="G984" s="2"/>
       <c r="H984" s="2"/>
     </row>
-    <row r="985" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:8">
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
@@ -10977,7 +10983,7 @@
       <c r="G985" s="2"/>
       <c r="H985" s="2"/>
     </row>
-    <row r="986" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:8">
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
@@ -10986,7 +10992,7 @@
       <c r="G986" s="2"/>
       <c r="H986" s="2"/>
     </row>
-    <row r="987" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:8">
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
@@ -10995,7 +11001,7 @@
       <c r="G987" s="2"/>
       <c r="H987" s="2"/>
     </row>
-    <row r="988" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:8">
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
@@ -11004,7 +11010,7 @@
       <c r="G988" s="2"/>
       <c r="H988" s="2"/>
     </row>
-    <row r="989" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:8">
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
@@ -11013,7 +11019,7 @@
       <c r="G989" s="2"/>
       <c r="H989" s="2"/>
     </row>
-    <row r="990" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:8">
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
@@ -11022,7 +11028,7 @@
       <c r="G990" s="2"/>
       <c r="H990" s="2"/>
     </row>
-    <row r="991" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:8">
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
@@ -11031,7 +11037,7 @@
       <c r="G991" s="2"/>
       <c r="H991" s="2"/>
     </row>
-    <row r="992" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:8">
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
       <c r="D992" s="2"/>
@@ -11040,7 +11046,7 @@
       <c r="G992" s="2"/>
       <c r="H992" s="2"/>
     </row>
-    <row r="993" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:8">
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
       <c r="D993" s="2"/>
@@ -11049,7 +11055,7 @@
       <c r="G993" s="2"/>
       <c r="H993" s="2"/>
     </row>
-    <row r="994" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:8">
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
       <c r="D994" s="2"/>
@@ -11058,7 +11064,7 @@
       <c r="G994" s="2"/>
       <c r="H994" s="2"/>
     </row>
-    <row r="995" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:8">
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
       <c r="D995" s="2"/>
@@ -11067,7 +11073,7 @@
       <c r="G995" s="2"/>
       <c r="H995" s="2"/>
     </row>
-    <row r="996" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:8">
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
@@ -11076,7 +11082,7 @@
       <c r="G996" s="2"/>
       <c r="H996" s="2"/>
     </row>
-    <row r="997" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:8">
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
       <c r="D997" s="2"/>
@@ -11085,7 +11091,7 @@
       <c r="G997" s="2"/>
       <c r="H997" s="2"/>
     </row>
-    <row r="998" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:8">
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
       <c r="D998" s="2"/>
@@ -11094,7 +11100,7 @@
       <c r="G998" s="2"/>
       <c r="H998" s="2"/>
     </row>
-    <row r="999" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="999" spans="2:8">
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
@@ -11103,7 +11109,7 @@
       <c r="G999" s="2"/>
       <c r="H999" s="2"/>
     </row>
-    <row r="1000" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1000" spans="2:8">
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="2"/>
